--- a/DaySale_2025-05-27_20-38.xlsx
+++ b/DaySale_2025-05-27_20-38.xlsx
@@ -275,6 +275,18 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>MEPAFURAN 50 MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -320,6 +332,12 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -329,6 +347,12 @@
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -389,7 +413,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11.2000</t>
+    <t>23.2000</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1510,7 +1537,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1774,24 +1801,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,28 +1827,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>39</v>
@@ -1840,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,7 +1893,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1883,11 +1910,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,7 +1959,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,28 +2124,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2130,31 +2157,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,28 +2190,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2269,7 +2296,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,11 +2372,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2444,11 +2471,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2460,7 +2487,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2477,49 +2504,148 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1669.81</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>143</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>144</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>145</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>147</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>33</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>124</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>148</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>149</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>33</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>124</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>150</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>28</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>33</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>75</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1795.81</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>152</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>153</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>154</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2743,10 +2869,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
